--- a/execution timetime as matrix.xlsx
+++ b/execution timetime as matrix.xlsx
@@ -668,11 +668,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="277483928"/>
-        <c:axId val="277482360"/>
+        <c:axId val="227148008"/>
+        <c:axId val="227148392"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="277483928"/>
+        <c:axId val="227148008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -715,7 +715,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="277482360"/>
+        <c:crossAx val="227148392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -723,7 +723,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="277482360"/>
+        <c:axId val="227148392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -774,7 +774,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="277483928"/>
+        <c:crossAx val="227148008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -837,38 +837,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:pieChart>
@@ -2690,7 +2659,7 @@
   <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P31" sqref="P31"/>
+      <selection activeCell="A9" sqref="A9:L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
